--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_12_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_12_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11892.1527647679</v>
+        <v>35474.14320992622</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11572029.62445066</v>
+        <v>11913256.6205127</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22390674.47577175</v>
+        <v>22691941.43937716</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3956122.469763906</v>
+        <v>3788610.711101098</v>
       </c>
     </row>
     <row r="11">
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>214.0546037115793</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>228.2791569798281</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>222.015216073053</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>220.9472418750056</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>222.1041760324344</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>224.4102714990879</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>124.4392452907996</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>133.7422231944371</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>133.0424782891217</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>135.7019048619078</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>124.739343706399</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>136.5563672569108</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>129.1268734863557</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.741326030535</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,16 +8142,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>131.7205602141892</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>135.5896671967106</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>124.4287531140874</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>135.4483645121045</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8219,16 +8221,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318189</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323866</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N5" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O5" t="n">
-        <v>71.07189926570237</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P5" t="n">
         <v>95.50771753390021</v>
@@ -8298,22 +8300,22 @@
         <v>56.29524403393702</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>28.90545725697471</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>14.17891314335149</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>22.44423757443683</v>
       </c>
       <c r="P6" t="n">
         <v>37.54182911310821</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.5191492782957</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,7 +8382,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962936</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N7" t="n">
         <v>62.89780050171086</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280013</v>
+        <v>99.65754523979962</v>
       </c>
       <c r="K8" t="n">
-        <v>86.72591490550931</v>
+        <v>98.10979822960114</v>
       </c>
       <c r="L8" t="n">
-        <v>70.31665934305323</v>
+        <v>84.43937323841104</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729366</v>
+        <v>61.96574170152377</v>
       </c>
       <c r="N8" t="n">
-        <v>42.33948647951536</v>
+        <v>58.3079996815712</v>
       </c>
       <c r="O8" t="n">
-        <v>53.44993733213093</v>
+        <v>68.52855153510905</v>
       </c>
       <c r="P8" t="n">
-        <v>80.46778072209531</v>
+        <v>93.33702908826814</v>
       </c>
       <c r="Q8" t="n">
-        <v>109.0872921559756</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8611,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>74.37427626277801</v>
+        <v>79.0382342486505</v>
       </c>
       <c r="L10" t="n">
-        <v>64.96559098237566</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>65.20591187910269</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>55.71856618250388</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>71.9833858147683</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615827</v>
+        <v>85.7039259382903</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8687,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K11" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8708,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>83.46310250126157</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8787,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.16972933916271</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L13" t="n">
-        <v>49.14113189899257</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>39.43061707215854</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>56.93882853040726</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679384</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8945,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.16972933916271</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L16" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M16" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N16" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O16" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679384</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9182,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.84452414151258</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>62.00809140979796</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M19" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N19" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O19" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9401,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.84452414151258</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.16972933916271</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L22" t="n">
-        <v>49.14113189899257</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>48.52123852856002</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K23" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9656,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.46310250126157</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>52.16972933916271</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>62.00809140979796</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>49.14113189899257</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>48.52123852856002</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O25" t="n">
-        <v>56.93882853040726</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>71.92258334679384</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9890,10 +9892,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9972,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,25 +10035,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M28" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N28" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O28" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P28" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679384</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10130,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.84452414151258</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O31" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679384</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10367,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126157</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.84452414151258</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.16972933916271</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O34" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K35" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10604,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L37" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M37" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N37" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O37" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>71.92258334679384</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10841,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>83.46310250126157</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.16972933916271</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L40" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M40" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N40" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O40" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.84452414151258</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11218,16 +11220,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22559,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.2552920008841</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>338.9889007429445</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>208.6467463822456</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>7.922410639454665</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.867117437475895</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>146.8887686565825</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>207.9389049302515</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>222.8881568254978</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3418572666964</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22638,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3181315750904</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>111.9902728985985</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>88.5226115060478</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>98.58170088321394</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.2116449385346</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.0624069602493</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9397119764932</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9696969341359</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.0379524075512</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>154.8104543848956</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>91.85451271704939</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>19.79686107274065</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1474282515537846</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>84.37993042953532</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>176.3364561889816</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>223.6457034240009</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.8546554334476</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3178684969824</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22890,16 +22892,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -23033,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>414.2543098065221</v>
+        <v>414.3438031062408</v>
       </c>
       <c r="H8" t="n">
-        <v>328.737591844935</v>
+        <v>329.6541151006791</v>
       </c>
       <c r="I8" t="n">
-        <v>170.0563803341062</v>
+        <v>173.5065707715111</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23063,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>118.7515617259727</v>
       </c>
       <c r="R8" t="n">
-        <v>84.0108208899931</v>
+        <v>89.63245437844751</v>
       </c>
       <c r="S8" t="n">
-        <v>185.1290231762283</v>
+        <v>187.1683517435681</v>
       </c>
       <c r="T8" t="n">
-        <v>218.5063572696783</v>
+        <v>218.8981141891969</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2617786911475</v>
+        <v>251.268938155125</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23112,49 +23114,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.7825588849655</v>
+        <v>136.8304420216971</v>
       </c>
       <c r="H9" t="n">
-        <v>106.817768233445</v>
+        <v>107.2802185276682</v>
       </c>
       <c r="I9" t="n">
-        <v>80.20868489375378</v>
+        <v>81.85729289087121</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913169</v>
+        <v>78.36327744147647</v>
       </c>
       <c r="K9" t="n">
-        <v>47.25897875440141</v>
+        <v>54.99105526776094</v>
       </c>
       <c r="L9" t="n">
-        <v>16.75508344424118</v>
+        <v>27.1518145139607</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.1324947762387</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>9.130000058643361</v>
+        <v>20.52261636687635</v>
       </c>
       <c r="P9" t="n">
-        <v>26.85597970277001</v>
+        <v>35.99955868092269</v>
       </c>
       <c r="Q9" t="n">
-        <v>68.37594193669796</v>
+        <v>74.48818233773052</v>
       </c>
       <c r="R9" t="n">
-        <v>110.8508838462542</v>
+        <v>113.823838598763</v>
       </c>
       <c r="S9" t="n">
-        <v>161.2636171197674</v>
+        <v>162.1530253831804</v>
       </c>
       <c r="T9" t="n">
-        <v>197.9036731785617</v>
+        <v>198.0966758217911</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9044769310903</v>
+        <v>225.9076271374542</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23191,49 +23193,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5206907817879</v>
+        <v>167.5608343951249</v>
       </c>
       <c r="H10" t="n">
-        <v>158.0458795257661</v>
+        <v>158.4027927425254</v>
       </c>
       <c r="I10" t="n">
-        <v>141.3076148215571</v>
+        <v>142.5148427571804</v>
       </c>
       <c r="J10" t="n">
-        <v>60.10977774604452</v>
+        <v>62.94793120896551</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>70.93385145975896</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>71.49860574063625</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>61.86163384887254</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>77.65750308897371</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.7817879815572</v>
+        <v>50.14326818561599</v>
       </c>
       <c r="R10" t="n">
-        <v>156.1475068297698</v>
+        <v>157.952509662174</v>
       </c>
       <c r="S10" t="n">
-        <v>215.8207507508087</v>
+        <v>216.5203444486895</v>
       </c>
       <c r="T10" t="n">
-        <v>225.9361746006879</v>
+        <v>226.1076973122184</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2955669039454</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23270,49 +23272,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H11" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I11" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L11" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M11" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P11" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R11" t="n">
-        <v>69.10542099048568</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S11" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,19 +23351,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I12" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R12" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S12" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T12" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,49 +23430,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I13" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J13" t="n">
-        <v>52.58459624356988</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M13" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.86903925848996</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R13" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S13" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T13" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,49 +23509,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H14" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I14" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L14" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M14" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P14" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>69.10542099048568</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S14" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,19 +23588,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I15" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23613,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R15" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S15" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T15" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I16" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J16" t="n">
-        <v>52.58459624356988</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.86903925848996</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R16" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S16" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T16" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,49 +23746,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H17" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I17" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L17" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M17" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P17" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>69.10542099048568</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S17" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,19 +23825,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I18" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23850,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S18" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,19 +23904,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I19" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J19" t="n">
-        <v>52.58459624356988</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.86903925848996</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R19" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S19" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T19" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,49 +23983,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H20" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I20" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J20" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L20" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M20" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P20" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R20" t="n">
-        <v>69.10542099048568</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S20" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,19 +24062,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I21" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K21" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24087,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R21" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S21" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,49 +24141,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I22" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J22" t="n">
-        <v>52.58459624356988</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97552059180407</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.86903925848996</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R22" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S22" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T22" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H23" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I23" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24233,34 +24235,34 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M23" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P23" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R23" t="n">
-        <v>69.10542099048568</v>
+        <v>67.46474657889402</v>
       </c>
       <c r="S23" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,19 +24299,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I24" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24324,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R24" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355434</v>
       </c>
       <c r="S24" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T24" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,49 +24378,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I25" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J25" t="n">
-        <v>52.58459624356988</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.86903925848996</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R25" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S25" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T25" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,49 +24457,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H26" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I26" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K26" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L26" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M26" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.46310250126157</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>69.10542099048568</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S26" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,19 +24536,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I27" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24561,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S27" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T27" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,22 +24615,22 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H28" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I28" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J28" t="n">
-        <v>52.58459624356988</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>49.14113189899257</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.86903925848996</v>
+        <v>102.230949233282</v>
       </c>
       <c r="R28" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S28" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T28" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,49 +24694,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H29" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I29" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L29" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M29" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>69.10542099048568</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S29" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,19 +24773,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I30" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K30" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24798,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S30" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I31" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J31" t="n">
-        <v>52.58459624356988</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.86903925848996</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R31" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S31" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T31" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,49 +24931,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H32" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I32" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L32" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M32" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R32" t="n">
-        <v>69.10542099048568</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S32" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,19 +25010,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I33" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K33" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25035,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R33" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S33" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T33" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I34" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J34" t="n">
-        <v>52.58459624356988</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.86903925848996</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R34" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S34" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T34" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,49 +25168,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H35" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I35" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L35" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M35" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P35" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>69.10542099048568</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S35" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,19 +25247,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I36" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25272,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S36" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T36" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I37" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J37" t="n">
-        <v>52.58459624356988</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.86903925848996</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R37" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S37" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T37" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,49 +25405,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H38" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I38" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L38" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M38" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P38" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R38" t="n">
-        <v>69.10542099048568</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S38" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,19 +25484,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I39" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25509,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R39" t="n">
-        <v>57.4466155766215</v>
+        <v>102.1006281848752</v>
       </c>
       <c r="S39" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I40" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J40" t="n">
-        <v>52.58459624356988</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.86903925848996</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R40" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S40" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T40" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,49 +25642,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H41" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I41" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L41" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M41" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R41" t="n">
-        <v>69.10542099048568</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S41" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,19 +25721,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I42" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K42" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25746,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R42" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S42" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T42" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I43" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J43" t="n">
-        <v>52.58459624356988</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25822,25 +25824,25 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.86903925848996</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R43" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S43" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T43" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,49 +25879,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H44" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I44" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L44" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R44" t="n">
-        <v>69.10542099048568</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S44" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,19 +25958,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I45" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K45" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25983,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R45" t="n">
-        <v>102.9682853879423</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S45" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T45" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,49 +26037,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I46" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J46" t="n">
-        <v>52.58459624356988</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K46" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.86903925848996</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R46" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S46" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T46" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>377056.9724432649</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>360437.0411666244</v>
+        <v>365299.2638783518</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>341705.519016412</v>
+        <v>310040.0252444812</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>343468.6914566744</v>
+        <v>317842.477747613</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>345506.5834748739</v>
+        <v>327220.1657222175</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>347492.0177857617</v>
+        <v>323920.7297132115</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>318614.9547731067</v>
+        <v>305222.3489591828</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>345506.5834748739</v>
+        <v>324289.6243156192</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>330395.8755173818</v>
+        <v>328214.3931164318</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>345506.5834748739</v>
+        <v>326467.900130995</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>345506.5834748739</v>
+        <v>311495.756497258</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>345506.5834748739</v>
+        <v>340668.8149248052</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>345506.5834748739</v>
+        <v>312608.9458345602</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>316886.4371263949</v>
+        <v>316088.4365038599</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>290538.8043606869</v>
+        <v>298298.934128337</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65009.18442781295</v>
+        <v>64504.44331886782</v>
       </c>
       <c r="C2" t="n">
-        <v>69166.49721765374</v>
+        <v>70000.02111109275</v>
       </c>
       <c r="D2" t="n">
-        <v>66741.13210267149</v>
+        <v>60640.41516046097</v>
       </c>
       <c r="E2" t="n">
-        <v>68686.39420919862</v>
+        <v>64448.76465437964</v>
       </c>
       <c r="F2" t="n">
-        <v>69035.74712660426</v>
+        <v>66056.36830716897</v>
       </c>
       <c r="G2" t="n">
-        <v>69376.10729418501</v>
+        <v>65490.75070562506</v>
       </c>
       <c r="H2" t="n">
-        <v>64425.75363487275</v>
+        <v>62285.31400493448</v>
       </c>
       <c r="I2" t="n">
-        <v>69035.74712660426</v>
+        <v>65553.98978032355</v>
       </c>
       <c r="J2" t="n">
-        <v>66445.34004817702</v>
+        <v>66226.80728903426</v>
       </c>
       <c r="K2" t="n">
-        <v>69035.74712660426</v>
+        <v>65927.40849153083</v>
       </c>
       <c r="L2" t="n">
-        <v>69035.74712660426</v>
+        <v>63360.75529717593</v>
       </c>
       <c r="M2" t="n">
-        <v>69035.74712660426</v>
+        <v>68361.85102761256</v>
       </c>
       <c r="N2" t="n">
-        <v>69035.74712660426</v>
+        <v>63551.58775499916</v>
       </c>
       <c r="O2" t="n">
-        <v>64129.43632400787</v>
+        <v>64148.07186973622</v>
       </c>
       <c r="P2" t="n">
-        <v>59612.69927845792</v>
+        <v>61098.44289107519</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11372.62968807394</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>203044.1822108272</v>
+        <v>213791.1722776066</v>
       </c>
       <c r="D3" t="n">
-        <v>22280.77012981693</v>
+        <v>3215.745576977153</v>
       </c>
       <c r="E3" t="n">
-        <v>47420.72226727416</v>
+        <v>70525.36140942124</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62845.91437550219</v>
+        <v>64504.44331886784</v>
       </c>
       <c r="C4" t="n">
-        <v>26132.30461463098</v>
+        <v>26965.82850806996</v>
       </c>
       <c r="D4" t="n">
-        <v>19123.38052016634</v>
+        <v>16944.68530225331</v>
       </c>
       <c r="E4" t="n">
-        <v>11484.45277888092</v>
+        <v>6340.115251444692</v>
       </c>
       <c r="F4" t="n">
-        <v>11833.80569628656</v>
+        <v>7947.718904234023</v>
       </c>
       <c r="G4" t="n">
-        <v>12174.16586386731</v>
+        <v>7382.101302690122</v>
       </c>
       <c r="H4" t="n">
-        <v>7223.812204555073</v>
+        <v>4176.66460199953</v>
       </c>
       <c r="I4" t="n">
-        <v>11833.80569628656</v>
+        <v>7445.340377388584</v>
       </c>
       <c r="J4" t="n">
-        <v>9243.398617859346</v>
+        <v>8118.157886099305</v>
       </c>
       <c r="K4" t="n">
-        <v>11833.80569628656</v>
+        <v>7818.759088595883</v>
       </c>
       <c r="L4" t="n">
-        <v>11833.80569628656</v>
+        <v>5252.105894240977</v>
       </c>
       <c r="M4" t="n">
-        <v>11833.80569628656</v>
+        <v>10253.20162467761</v>
       </c>
       <c r="N4" t="n">
-        <v>11833.80569628656</v>
+        <v>5442.93835206421</v>
       </c>
       <c r="O4" t="n">
-        <v>6927.494893690181</v>
+        <v>6039.42246680128</v>
       </c>
       <c r="P4" t="n">
-        <v>2410.757848140239</v>
+        <v>2989.793488140239</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33884.88516240442</v>
+        <v>33627.6</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
       </c>
       <c r="D5" t="n">
-        <v>39312.96135688073</v>
+        <v>38827.66156583119</v>
       </c>
       <c r="E5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="F5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="G5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="H5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="I5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="J5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="K5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="L5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="M5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="N5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="P5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-43094.2447981676</v>
+        <v>-33627.60000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>-198755.7944389511</v>
+        <v>-209502.7845057304</v>
       </c>
       <c r="D6" t="n">
-        <v>-13975.97990419251</v>
+        <v>1652.322715399314</v>
       </c>
       <c r="E6" t="n">
-        <v>2809.116599786212</v>
+        <v>-19530.44937229007</v>
       </c>
       <c r="F6" t="n">
-        <v>50229.83886706037</v>
+        <v>50994.91203713117</v>
       </c>
       <c r="G6" t="n">
-        <v>50229.83886706037</v>
+        <v>50994.91203713116</v>
       </c>
       <c r="H6" t="n">
-        <v>50229.83886706035</v>
+        <v>50994.91203713117</v>
       </c>
       <c r="I6" t="n">
-        <v>50229.83886706037</v>
+        <v>50994.91203713119</v>
       </c>
       <c r="J6" t="n">
-        <v>50229.83886706035</v>
+        <v>50994.91203713117</v>
       </c>
       <c r="K6" t="n">
-        <v>50229.83886706037</v>
+        <v>50994.91203713117</v>
       </c>
       <c r="L6" t="n">
-        <v>50229.83886706037</v>
+        <v>50994.91203713117</v>
       </c>
       <c r="M6" t="n">
-        <v>50229.83886706037</v>
+        <v>50994.91203713117</v>
       </c>
       <c r="N6" t="n">
-        <v>50229.83886706037</v>
+        <v>50994.91203713117</v>
       </c>
       <c r="O6" t="n">
-        <v>50229.83886706036</v>
+        <v>50994.91203713115</v>
       </c>
       <c r="P6" t="n">
-        <v>50229.83886706035</v>
+        <v>50994.91203713117</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.80207166992757</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
-        <v>260.7963925174648</v>
+        <v>238.5349342124397</v>
       </c>
       <c r="E3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="F3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="G3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="H3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="I3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="K3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="O3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="P3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.80207166992757</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>222.9779664560666</v>
+        <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
-        <v>26.01635439147063</v>
+        <v>3.75489608644552</v>
       </c>
       <c r="E3" t="n">
-        <v>59.02482598057782</v>
+        <v>87.78329357672456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04744551425096509</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4859013728226964</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.829143188160333</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.026878715157852</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.035247333401205</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.487257990159179</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.331017154219779</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.465821721585336</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.9940353892523</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.822724256181599</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.123581777068909</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2.980349284567188</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.081164655993868</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2076927386335998</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.003795641140077206</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02538558812022158</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2451713378979295</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.874021345367278</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.398381375867075</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.09921577992192</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5.511901490752496</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>6.432129060110527</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6.602368376934295</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.039877187533595</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.847533927974593</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.24044805548653</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.576133269429196</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4715261653032382</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1023217345722966</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001670104481593525</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02128242432282021</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1892200998883471</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.64002054236263</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.504667399623389</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.472630753142202</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.164116067049108</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.336116750894444</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.256791351145754</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.008173939738262</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.574012483552727</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.782112822159064</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9569351881878978</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3708946129713303</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.09093399483386816</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001160859508517467</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31291,7 +31293,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068053</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M5" t="n">
         <v>165.7299311340341</v>
@@ -31300,7 +31302,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559844</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P5" t="n">
         <v>135.7252782213693</v>
@@ -31315,7 +31317,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342872</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U5" t="n">
         <v>0.07550714794001816</v>
@@ -31385,7 +31387,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.46262480772582</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R6" t="n">
         <v>31.35420961992052</v>
@@ -31434,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H7" t="n">
         <v>3.764178316183975</v>
@@ -31452,7 +31454,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797569</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N7" t="n">
         <v>64.78774396352233</v>
@@ -31464,13 +31466,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702512</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R7" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090666</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T7" t="n">
         <v>1.808960949495364</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.048427708612923</v>
+        <v>0.9589344088942292</v>
       </c>
       <c r="H8" t="n">
-        <v>10.7372102708321</v>
+        <v>9.820687015088028</v>
       </c>
       <c r="I8" t="n">
-        <v>40.41950923629976</v>
+        <v>36.96931879889481</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388616</v>
+        <v>81.38835928688667</v>
       </c>
       <c r="K8" t="n">
-        <v>133.3639361394712</v>
+        <v>121.9800528153794</v>
       </c>
       <c r="L8" t="n">
-        <v>165.449755626934</v>
+        <v>151.3270417315762</v>
       </c>
       <c r="M8" t="n">
-        <v>184.0947318899791</v>
+        <v>168.380491525749</v>
       </c>
       <c r="N8" t="n">
-        <v>187.0735771170756</v>
+        <v>171.1050639150197</v>
       </c>
       <c r="O8" t="n">
-        <v>176.6482740895558</v>
+        <v>161.5696598865777</v>
       </c>
       <c r="P8" t="n">
-        <v>150.7652150331742</v>
+        <v>137.8959666670014</v>
       </c>
       <c r="Q8" t="n">
-        <v>113.2183977184739</v>
+        <v>103.5541281484768</v>
       </c>
       <c r="R8" t="n">
-        <v>65.85829705115658</v>
+        <v>60.23666356270218</v>
       </c>
       <c r="S8" t="n">
-        <v>23.89104641001701</v>
+        <v>21.85171784267727</v>
       </c>
       <c r="T8" t="n">
-        <v>4.589492294453073</v>
+        <v>4.19773537493449</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.07671475271153833</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.560958278245113</v>
+        <v>0.5130751415135496</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051487</v>
+        <v>4.955225708828229</v>
       </c>
       <c r="I9" t="n">
-        <v>19.31369510624622</v>
+        <v>17.66508710912879</v>
       </c>
       <c r="J9" t="n">
-        <v>52.99825557753501</v>
+        <v>48.47434922519023</v>
       </c>
       <c r="K9" t="n">
-        <v>90.58246021995758</v>
+        <v>82.85038370659805</v>
       </c>
       <c r="L9" t="n">
-        <v>121.799296335633</v>
+        <v>111.4025652659135</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>130.0015391457796</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>133.4662443858011</v>
+        <v>122.0736280775681</v>
       </c>
       <c r="P9" t="n">
-        <v>107.1184277115602</v>
+        <v>97.97484873340755</v>
       </c>
       <c r="Q9" t="n">
-        <v>71.60583214932356</v>
+        <v>65.493591748291</v>
       </c>
       <c r="R9" t="n">
-        <v>34.82862011770975</v>
+        <v>31.85566536520092</v>
       </c>
       <c r="S9" t="n">
-        <v>10.4195539840704</v>
+        <v>9.530145720657373</v>
       </c>
       <c r="T9" t="n">
-        <v>2.261055516259907</v>
+        <v>2.068052873030491</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.03375494352062827</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.4301449633339076</v>
       </c>
       <c r="H10" t="n">
-        <v>4.181292981673455</v>
+        <v>3.8243797649142</v>
       </c>
       <c r="I10" t="n">
-        <v>14.14286010570121</v>
+        <v>12.93563217007788</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062825</v>
+        <v>30.41124890770727</v>
       </c>
       <c r="K10" t="n">
-        <v>54.63898190775737</v>
+        <v>49.97502392188489</v>
       </c>
       <c r="L10" t="n">
-        <v>69.91908529886263</v>
+        <v>63.95082482147933</v>
       </c>
       <c r="M10" t="n">
-        <v>73.71987206850237</v>
+        <v>67.4271782069688</v>
       </c>
       <c r="N10" t="n">
-        <v>71.96697828272931</v>
+        <v>65.82391061636065</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707449</v>
+        <v>60.79903536286908</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298935</v>
+        <v>52.02407811085732</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013718</v>
+        <v>36.0187750660784</v>
       </c>
       <c r="R10" t="n">
-        <v>21.14588454739968</v>
+        <v>19.34088171499551</v>
       </c>
       <c r="S10" t="n">
-        <v>8.195847286163604</v>
+        <v>7.496253588282733</v>
       </c>
       <c r="T10" t="n">
-        <v>2.009414827593581</v>
+        <v>1.837892116063059</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.0234624525454859</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H11" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I11" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J11" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K11" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L11" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M11" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P11" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q11" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R11" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S11" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T11" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H12" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I12" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J12" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K12" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31856,22 +31858,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R12" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S12" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T12" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H13" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I13" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J13" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K13" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L13" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M13" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N13" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O13" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P13" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R13" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S13" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T13" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H14" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J14" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K14" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L14" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M14" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P14" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R14" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S14" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T14" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H15" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I15" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J15" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K15" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32093,22 +32095,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R15" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S15" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T15" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H16" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I16" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J16" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K16" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L16" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M16" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N16" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O16" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P16" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R16" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S16" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T16" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H17" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J17" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K17" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L17" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M17" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P17" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R17" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S17" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T17" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H18" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I18" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J18" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K18" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32330,22 +32332,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R18" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S18" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T18" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H19" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I19" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J19" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K19" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L19" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M19" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N19" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O19" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P19" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R19" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S19" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T19" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H20" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J20" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K20" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L20" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M20" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P20" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R20" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S20" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T20" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H21" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I21" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J21" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K21" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32567,22 +32569,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S21" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T21" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H22" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I22" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J22" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K22" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L22" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M22" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N22" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O22" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P22" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R22" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S22" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T22" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H23" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56746744179212</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J23" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K23" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L23" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M23" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P23" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R23" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S23" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T23" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H24" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I24" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J24" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K24" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -32804,22 +32806,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R24" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S24" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T24" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H25" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I25" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J25" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K25" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L25" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M25" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N25" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O25" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P25" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R25" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S25" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T25" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H26" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I26" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J26" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K26" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L26" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M26" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P26" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q26" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R26" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S26" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T26" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H27" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I27" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J27" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K27" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33041,22 +33043,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R27" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S27" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T27" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H28" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I28" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J28" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K28" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L28" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M28" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N28" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O28" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P28" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R28" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S28" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T28" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H29" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J29" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K29" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M29" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P29" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q29" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R29" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S29" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T29" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I30" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J30" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K30" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33278,22 +33280,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S30" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T30" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H31" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I31" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J31" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O31" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P31" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R31" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S31" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T31" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H32" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J32" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K32" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M32" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P32" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q32" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R32" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S32" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T32" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I33" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J33" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K33" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33515,22 +33517,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S33" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T33" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H34" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I34" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J34" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O34" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P34" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R34" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S34" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T34" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H35" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I35" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J35" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K35" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L35" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M35" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P35" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q35" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R35" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S35" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T35" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H36" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I36" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J36" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K36" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33752,22 +33754,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R36" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S36" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T36" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H37" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I37" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J37" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K37" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L37" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M37" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N37" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O37" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P37" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R37" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S37" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T37" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H38" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I38" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J38" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K38" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L38" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M38" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P38" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R38" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S38" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T38" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H39" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I39" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J39" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K39" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33989,22 +33991,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R39" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S39" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T39" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H40" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I40" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J40" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K40" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L40" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M40" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N40" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O40" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P40" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R40" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S40" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T40" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H41" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K41" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M41" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P41" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R41" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S41" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T41" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I42" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J42" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K42" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34226,22 +34228,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S42" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T42" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H43" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I43" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J43" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O43" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P43" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R43" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S43" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T43" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H44" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J44" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K44" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L44" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M44" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P44" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R44" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S44" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T44" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H45" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I45" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K45" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34463,22 +34465,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R45" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S45" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T45" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I46" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J46" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K46" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L46" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M46" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N46" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R46" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S46" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T46" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_12_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_12_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35474.14320992622</v>
+        <v>-87500.54471053682</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11913256.6205127</v>
+        <v>11119084.48317291</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22691941.43937716</v>
+        <v>21897769.30203735</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3788610.711101098</v>
+        <v>4198351.652157259</v>
       </c>
     </row>
     <row r="11">
@@ -8221,16 +8221,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318186</v>
+        <v>86.82148686318189</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323863</v>
+        <v>64.61630209323866</v>
       </c>
       <c r="N5" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O5" t="n">
-        <v>71.0718992657024</v>
+        <v>71.07189926570237</v>
       </c>
       <c r="P5" t="n">
         <v>95.50771753390021</v>
@@ -8315,7 +8315,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.51914927829571</v>
+        <v>75.5191492782957</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8382,7 +8382,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962938</v>
+        <v>72.56001021962936</v>
       </c>
       <c r="N7" t="n">
         <v>62.89780050171086</v>
@@ -8473,7 +8473,7 @@
         <v>93.33702908826814</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>118.7515617259727</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>78.36327744147647</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>54.99105526776094</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>27.1518145139607</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.1324947762387</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>20.52261636687635</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>35.99955868092269</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>74.48818233773052</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8616,16 +8616,16 @@
         <v>79.0382342486505</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>70.93385145975896</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>71.49860574063625</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>61.86163384887254</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>77.65750308897371</v>
       </c>
       <c r="P10" t="n">
         <v>85.7039259382903</v>
@@ -8692,10 +8692,10 @@
         <v>69.70579724700553</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8771,7 +8771,7 @@
         <v>60.52422152698378</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8853,16 +8853,16 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P13" t="n">
         <v>66.55853351624533</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q14" t="n">
         <v>80.64258426171739</v>
@@ -9008,7 +9008,7 @@
         <v>60.52422152698378</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,10 +9178,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q17" t="n">
         <v>80.64258426171739</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L19" t="n">
         <v>47.39929435887775</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9564,16 +9564,16 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N22" t="n">
         <v>37.63776203285606</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P22" t="n">
         <v>66.55853351624533</v>
@@ -9643,7 +9643,7 @@
         <v>53.21989217810253</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9719,7 +9719,7 @@
         <v>60.52422152698378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,19 +9798,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N25" t="n">
         <v>37.63776203285606</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P25" t="n">
         <v>66.55853351624533</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q26" t="n">
         <v>80.64258426171739</v>
@@ -9956,7 +9956,7 @@
         <v>60.52422152698378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>66.55853351624533</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q29" t="n">
         <v>80.64258426171739</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,10 +10588,10 @@
         <v>69.70579724700553</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q35" t="n">
         <v>80.64258426171739</v>
@@ -10667,7 +10667,7 @@
         <v>60.52422152698378</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10904,7 +10904,7 @@
         <v>60.52422152698378</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,10 +11062,10 @@
         <v>69.70579724700553</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11232,10 +11232,10 @@
         <v>37.63776203285606</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>118.7515617259727</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>89.63245437844751</v>
@@ -23120,34 +23120,34 @@
         <v>107.2802185276682</v>
       </c>
       <c r="I9" t="n">
-        <v>81.85729289087121</v>
+        <v>71.73154574228629</v>
       </c>
       <c r="J9" t="n">
-        <v>78.36327744147647</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>54.99105526776094</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>27.1518145139607</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.1324947762387</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>20.52261636687635</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>35.99955868092269</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>74.48818233773052</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>113.823838598763</v>
+        <v>68.30216878744221</v>
       </c>
       <c r="S9" t="n">
         <v>162.1530253831804</v>
@@ -23208,16 +23208,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>70.93385145975896</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>71.49860574063625</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>61.86163384887254</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>77.65750308897371</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -23284,10 +23284,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23296,13 +23296,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>67.46474657889404</v>
@@ -23363,7 +23363,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23381,7 +23381,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>56.57895837355435</v>
@@ -23445,16 +23445,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>47.39929435887775</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>46.68471506615329</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>37.63776203285606</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>55.28283671961447</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -23518,13 +23518,13 @@
         <v>159.9014836333536</v>
       </c>
       <c r="J14" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23533,10 +23533,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -23600,7 +23600,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23618,7 +23618,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>56.57895837355435</v>
@@ -23755,13 +23755,13 @@
         <v>159.9014836333536</v>
       </c>
       <c r="J17" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23770,10 +23770,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -23834,10 +23834,10 @@
         <v>65.23061315193451</v>
       </c>
       <c r="J18" t="n">
-        <v>60.52422152698378</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23916,7 +23916,7 @@
         <v>51.75628081312638</v>
       </c>
       <c r="K19" t="n">
-        <v>60.64691470913344</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23992,13 +23992,13 @@
         <v>159.9014836333536</v>
       </c>
       <c r="J20" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24007,16 +24007,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>67.46474657889404</v>
+        <v>67.46474657889402</v>
       </c>
       <c r="S20" t="n">
         <v>179.1266962566148</v>
@@ -24071,10 +24071,10 @@
         <v>65.23061315193451</v>
       </c>
       <c r="J21" t="n">
-        <v>60.52422152698378</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24092,10 +24092,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>56.57895837355435</v>
+        <v>56.57895837355434</v>
       </c>
       <c r="S21" t="n">
         <v>158.6458343615066</v>
@@ -24156,16 +24156,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>47.39929435887775</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>46.68471506615329</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>55.28283671961447</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -24235,7 +24235,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24244,16 +24244,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>9.069265482343781</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.64258426171736</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>67.46474657889402</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S23" t="n">
         <v>179.1266962566148</v>
@@ -24311,7 +24311,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24329,10 +24329,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>56.57895837355434</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S24" t="n">
         <v>158.6458343615066</v>
@@ -24390,19 +24390,19 @@
         <v>51.75628081312638</v>
       </c>
       <c r="K25" t="n">
-        <v>60.64691470913344</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>47.39929435887774</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>46.68471506615327</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>55.28283671961447</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -24466,13 +24466,13 @@
         <v>159.9014836333536</v>
       </c>
       <c r="J26" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24481,10 +24481,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -24548,7 +24548,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.230949233282</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R28" t="n">
         <v>150.8348675305268</v>
@@ -24703,13 +24703,13 @@
         <v>159.9014836333536</v>
       </c>
       <c r="J29" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24718,10 +24718,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -24782,10 +24782,10 @@
         <v>65.23061315193451</v>
       </c>
       <c r="J30" t="n">
-        <v>60.52422152698378</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24940,13 +24940,13 @@
         <v>159.9014836333536</v>
       </c>
       <c r="J32" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24955,13 +24955,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>67.46474657889404</v>
@@ -25019,10 +25019,10 @@
         <v>65.23061315193451</v>
       </c>
       <c r="J33" t="n">
-        <v>60.52422152698378</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25040,7 +25040,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>56.57895837355435</v>
@@ -25180,10 +25180,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -25192,10 +25192,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25259,7 +25259,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25414,13 +25414,13 @@
         <v>159.9014836333536</v>
       </c>
       <c r="J38" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -25429,13 +25429,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>67.46474657889404</v>
@@ -25496,7 +25496,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25514,10 +25514,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>102.1006281848752</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S39" t="n">
         <v>158.6458343615066</v>
@@ -25654,10 +25654,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -25666,13 +25666,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>67.46474657889404</v>
@@ -25730,10 +25730,10 @@
         <v>65.23061315193451</v>
       </c>
       <c r="J42" t="n">
-        <v>60.52422152698378</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25751,7 +25751,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>56.57895837355435</v>
@@ -25824,10 +25824,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>55.28283671961447</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>66.55853351624533</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>36.88799085553058</v>
@@ -25888,13 +25888,13 @@
         <v>159.9014836333536</v>
       </c>
       <c r="J44" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25903,13 +25903,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>67.46474657889404</v>
@@ -25967,10 +25967,10 @@
         <v>65.23061315193451</v>
       </c>
       <c r="J45" t="n">
-        <v>60.52422152698378</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>56.57895837355435</v>
@@ -26049,22 +26049,22 @@
         <v>51.75628081312638</v>
       </c>
       <c r="K46" t="n">
-        <v>60.64691470913344</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>47.39929435887775</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>46.68471506615329</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>37.63776203285606</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>55.28283671961447</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>66.55853351624533</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>36.88799085553058</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>310040.0252444812</v>
+        <v>365083.8788395053</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>317842.477747613</v>
+        <v>361101.2641780771</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>327220.1657222175</v>
+        <v>361101.2641780771</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>323920.7297132115</v>
+        <v>361101.2641780771</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>305222.3489591828</v>
+        <v>361101.2641780771</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>324289.6243156192</v>
+        <v>361101.2641780771</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>328214.3931164318</v>
+        <v>361101.2641780771</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>326467.900130995</v>
+        <v>361101.2641780771</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>311495.756497258</v>
+        <v>361101.2641780771</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>340668.8149248052</v>
+        <v>361101.2641780771</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>312608.9458345602</v>
+        <v>361101.2641780771</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>316088.4365038599</v>
+        <v>361101.2641780771</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>298298.934128337</v>
+        <v>361101.2641780771</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>64504.44331886782</v>
       </c>
       <c r="C2" t="n">
-        <v>70000.02111109275</v>
+        <v>70000.0211110927</v>
       </c>
       <c r="D2" t="n">
-        <v>60640.41516046097</v>
+        <v>70076.5043481793</v>
       </c>
       <c r="E2" t="n">
-        <v>64448.76465437964</v>
+        <v>71864.55661388766</v>
       </c>
       <c r="F2" t="n">
-        <v>66056.36830716897</v>
+        <v>71864.55661388767</v>
       </c>
       <c r="G2" t="n">
-        <v>65490.75070562506</v>
+        <v>71864.55661388766</v>
       </c>
       <c r="H2" t="n">
-        <v>62285.31400493448</v>
+        <v>71864.55661388766</v>
       </c>
       <c r="I2" t="n">
-        <v>65553.98978032355</v>
+        <v>71864.55661388767</v>
       </c>
       <c r="J2" t="n">
-        <v>66226.80728903426</v>
+        <v>71864.55661388766</v>
       </c>
       <c r="K2" t="n">
-        <v>65927.40849153083</v>
+        <v>71864.55661388765</v>
       </c>
       <c r="L2" t="n">
-        <v>63360.75529717593</v>
+        <v>71864.55661388767</v>
       </c>
       <c r="M2" t="n">
-        <v>68361.85102761256</v>
+        <v>71864.55661388767</v>
       </c>
       <c r="N2" t="n">
-        <v>63551.58775499916</v>
+        <v>71864.55661388767</v>
       </c>
       <c r="O2" t="n">
-        <v>64148.07186973622</v>
+        <v>71864.55661388766</v>
       </c>
       <c r="P2" t="n">
-        <v>61098.44289107519</v>
+        <v>71864.55661388766</v>
       </c>
     </row>
     <row r="3">
@@ -26423,43 +26423,43 @@
         <v>26965.82850806996</v>
       </c>
       <c r="D4" t="n">
-        <v>16944.68530225331</v>
+        <v>26380.77448997165</v>
       </c>
       <c r="E4" t="n">
-        <v>6340.115251444692</v>
+        <v>13755.90721095271</v>
       </c>
       <c r="F4" t="n">
-        <v>7947.718904234023</v>
+        <v>13755.90721095271</v>
       </c>
       <c r="G4" t="n">
-        <v>7382.101302690122</v>
+        <v>13755.90721095271</v>
       </c>
       <c r="H4" t="n">
-        <v>4176.66460199953</v>
+        <v>13755.90721095271</v>
       </c>
       <c r="I4" t="n">
-        <v>7445.340377388584</v>
+        <v>13755.90721095271</v>
       </c>
       <c r="J4" t="n">
-        <v>8118.157886099305</v>
+        <v>13755.90721095271</v>
       </c>
       <c r="K4" t="n">
-        <v>7818.759088595883</v>
+        <v>13755.90721095271</v>
       </c>
       <c r="L4" t="n">
-        <v>5252.105894240977</v>
+        <v>13755.90721095271</v>
       </c>
       <c r="M4" t="n">
-        <v>10253.20162467761</v>
+        <v>13755.90721095271</v>
       </c>
       <c r="N4" t="n">
-        <v>5442.93835206421</v>
+        <v>13755.90721095271</v>
       </c>
       <c r="O4" t="n">
-        <v>6039.42246680128</v>
+        <v>13755.90721095271</v>
       </c>
       <c r="P4" t="n">
-        <v>2989.793488140239</v>
+        <v>13755.90721095271</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.60000000001</v>
+        <v>-48778.27397003477</v>
       </c>
       <c r="C6" t="n">
-        <v>-209502.7845057304</v>
+        <v>-224195.4936597465</v>
       </c>
       <c r="D6" t="n">
-        <v>1652.322715399314</v>
+        <v>-13034.01283552616</v>
       </c>
       <c r="E6" t="n">
-        <v>-19530.44937229007</v>
+        <v>-34067.78056773985</v>
       </c>
       <c r="F6" t="n">
-        <v>50994.91203713117</v>
+        <v>36457.5808416814</v>
       </c>
       <c r="G6" t="n">
-        <v>50994.91203713116</v>
+        <v>36457.58084168139</v>
       </c>
       <c r="H6" t="n">
-        <v>50994.91203713117</v>
+        <v>36457.58084168139</v>
       </c>
       <c r="I6" t="n">
-        <v>50994.91203713119</v>
+        <v>36457.5808416814</v>
       </c>
       <c r="J6" t="n">
-        <v>50994.91203713117</v>
+        <v>36457.58084168139</v>
       </c>
       <c r="K6" t="n">
-        <v>50994.91203713117</v>
+        <v>36457.58084168137</v>
       </c>
       <c r="L6" t="n">
-        <v>50994.91203713117</v>
+        <v>36457.5808416814</v>
       </c>
       <c r="M6" t="n">
-        <v>50994.91203713117</v>
+        <v>36457.5808416814</v>
       </c>
       <c r="N6" t="n">
-        <v>50994.91203713117</v>
+        <v>36457.5808416814</v>
       </c>
       <c r="O6" t="n">
-        <v>50994.91203713115</v>
+        <v>36457.58084168139</v>
       </c>
       <c r="P6" t="n">
-        <v>50994.91203713117</v>
+        <v>36457.58084168139</v>
       </c>
     </row>
   </sheetData>
@@ -31293,7 +31293,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068054</v>
+        <v>148.9449281068053</v>
       </c>
       <c r="M5" t="n">
         <v>165.7299311340341</v>
@@ -31302,7 +31302,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559843</v>
+        <v>159.0263121559844</v>
       </c>
       <c r="P5" t="n">
         <v>135.7252782213693</v>
@@ -31317,7 +31317,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342871</v>
+        <v>4.131656751342872</v>
       </c>
       <c r="U5" t="n">
         <v>0.07550714794001816</v>
@@ -31387,7 +31387,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.4626248077258</v>
+        <v>64.46262480772582</v>
       </c>
       <c r="R6" t="n">
         <v>31.35420961992052</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.423373839243596</v>
+        <v>0.4233738392435961</v>
       </c>
       <c r="H7" t="n">
         <v>3.764178316183975</v>
@@ -31454,7 +31454,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797568</v>
+        <v>66.36577372797569</v>
       </c>
       <c r="N7" t="n">
         <v>64.78774396352233</v>
@@ -31466,13 +31466,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702513</v>
+        <v>35.45178575702512</v>
       </c>
       <c r="R7" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090667</v>
+        <v>7.378251362090666</v>
       </c>
       <c r="T7" t="n">
         <v>1.808960949495364</v>
@@ -32469,7 +32469,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I20" t="n">
-        <v>50.57440593705229</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J20" t="n">
         <v>111.3401072796808</v>
@@ -32496,7 +32496,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R20" t="n">
-        <v>82.40437136225565</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S20" t="n">
         <v>29.89337332963048</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H21" t="n">
         <v>6.778799411242828</v>
@@ -32575,7 +32575,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R21" t="n">
-        <v>43.57887577908878</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S21" t="n">
         <v>13.03733674233122</v>
@@ -32624,7 +32624,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H22" t="n">
-        <v>5.231790602914801</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I22" t="n">
         <v>17.69607700863206</v>
@@ -32636,10 +32636,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L22" t="n">
-        <v>87.48538192236053</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M22" t="n">
-        <v>92.24106888145177</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N22" t="n">
         <v>90.04778243237713</v>
@@ -32706,7 +32706,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I23" t="n">
-        <v>50.5744059370523</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J23" t="n">
         <v>111.3401072796808</v>
@@ -32733,7 +32733,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R23" t="n">
-        <v>82.40437136225566</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S23" t="n">
         <v>29.89337332963048</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.70189203713141</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H24" t="n">
         <v>6.778799411242828</v>
@@ -32812,7 +32812,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R24" t="n">
-        <v>43.57887577908879</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S24" t="n">
         <v>13.03733674233122</v>
@@ -32861,7 +32861,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H25" t="n">
-        <v>5.231790602914802</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I25" t="n">
         <v>17.69607700863206</v>
@@ -32873,10 +32873,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L25" t="n">
-        <v>87.48538192236055</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M25" t="n">
-        <v>92.24106888145178</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N25" t="n">
         <v>90.04778243237713</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_12_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_12_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87500.54471053682</v>
+        <v>22755.79680643231</v>
       </c>
     </row>
     <row r="7">
@@ -8221,16 +8221,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318189</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323866</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N5" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O5" t="n">
-        <v>71.07189926570237</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P5" t="n">
         <v>95.50771753390021</v>
@@ -8315,7 +8315,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.5191492782957</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8382,7 +8382,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962936</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N7" t="n">
         <v>62.89780050171086</v>
@@ -8455,10 +8455,10 @@
         <v>99.65754523979962</v>
       </c>
       <c r="K8" t="n">
-        <v>98.10979822960114</v>
+        <v>98.10979822960113</v>
       </c>
       <c r="L8" t="n">
-        <v>84.43937323841104</v>
+        <v>84.43937323841101</v>
       </c>
       <c r="M8" t="n">
         <v>61.96574170152377</v>
@@ -8467,7 +8467,7 @@
         <v>58.3079996815712</v>
       </c>
       <c r="O8" t="n">
-        <v>68.52855153510905</v>
+        <v>68.52855153510902</v>
       </c>
       <c r="P8" t="n">
         <v>93.33702908826814</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>78.36327744147647</v>
+        <v>78.36327744147646</v>
       </c>
       <c r="K9" t="n">
-        <v>54.99105526776094</v>
+        <v>54.99105526776093</v>
       </c>
       <c r="L9" t="n">
-        <v>27.1518145139607</v>
+        <v>27.15181451396069</v>
       </c>
       <c r="M9" t="n">
-        <v>12.1324947762387</v>
+        <v>12.13249477623867</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>20.52261636687635</v>
+        <v>20.52261636687633</v>
       </c>
       <c r="P9" t="n">
-        <v>35.99955868092269</v>
+        <v>35.99955868092268</v>
       </c>
       <c r="Q9" t="n">
-        <v>74.48818233773052</v>
+        <v>74.48818233773051</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,7 +8613,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>79.0382342486505</v>
+        <v>79.03823424865048</v>
       </c>
       <c r="L10" t="n">
         <v>70.93385145975896</v>
@@ -8622,10 +8622,10 @@
         <v>71.49860574063625</v>
       </c>
       <c r="N10" t="n">
-        <v>61.86163384887254</v>
+        <v>61.86163384887253</v>
       </c>
       <c r="O10" t="n">
-        <v>77.65750308897371</v>
+        <v>77.6575030889737</v>
       </c>
       <c r="P10" t="n">
         <v>85.7039259382903</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>9.069265482343781</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P20" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.64258426171736</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9564,10 +9564,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L22" t="n">
-        <v>47.39929435887774</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M22" t="n">
-        <v>46.68471506615327</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N22" t="n">
         <v>37.63776203285606</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>9.069265482343809</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P32" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.64258426171739</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10512,10 +10512,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L34" t="n">
-        <v>47.39929435887775</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M34" t="n">
-        <v>46.68471506615329</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N34" t="n">
         <v>37.63776203285606</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.63245437844751</v>
+        <v>89.63245437844749</v>
       </c>
       <c r="S8" t="n">
         <v>187.1683517435681</v>
@@ -23202,7 +23202,7 @@
         <v>142.5148427571804</v>
       </c>
       <c r="J10" t="n">
-        <v>62.94793120896551</v>
+        <v>62.9479312089655</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>67.46474657889402</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S20" t="n">
         <v>179.1266962566148</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>56.57895837355434</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S21" t="n">
         <v>158.6458343615066</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>67.46474657889404</v>
+        <v>67.46474657889402</v>
       </c>
       <c r="S32" t="n">
         <v>179.1266962566148</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>56.57895837355435</v>
+        <v>56.57895837355434</v>
       </c>
       <c r="S33" t="n">
         <v>158.6458343615066</v>
@@ -26316,7 +26316,7 @@
         <v>64504.44331886782</v>
       </c>
       <c r="C2" t="n">
-        <v>70000.0211110927</v>
+        <v>70000.02111109275</v>
       </c>
       <c r="D2" t="n">
         <v>70076.5043481793</v>
@@ -26325,7 +26325,7 @@
         <v>71864.55661388766</v>
       </c>
       <c r="F2" t="n">
-        <v>71864.55661388767</v>
+        <v>71864.55661388766</v>
       </c>
       <c r="G2" t="n">
         <v>71864.55661388766</v>
@@ -26334,28 +26334,28 @@
         <v>71864.55661388766</v>
       </c>
       <c r="I2" t="n">
-        <v>71864.55661388767</v>
+        <v>71864.55661388766</v>
       </c>
       <c r="J2" t="n">
         <v>71864.55661388766</v>
       </c>
       <c r="K2" t="n">
-        <v>71864.55661388765</v>
+        <v>71864.55661388767</v>
       </c>
       <c r="L2" t="n">
         <v>71864.55661388767</v>
       </c>
       <c r="M2" t="n">
-        <v>71864.55661388767</v>
+        <v>71864.55661388766</v>
       </c>
       <c r="N2" t="n">
         <v>71864.55661388767</v>
       </c>
       <c r="O2" t="n">
-        <v>71864.55661388766</v>
+        <v>71864.55661388767</v>
       </c>
       <c r="P2" t="n">
-        <v>71864.55661388766</v>
+        <v>71864.55661388767</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>213791.1722776066</v>
       </c>
       <c r="D3" t="n">
-        <v>3215.745576977153</v>
+        <v>3215.745576977182</v>
       </c>
       <c r="E3" t="n">
-        <v>70525.36140942124</v>
+        <v>70525.36140942121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-48778.27397003477</v>
+        <v>-35142.66739700349</v>
       </c>
       <c r="C6" t="n">
-        <v>-224195.4936597465</v>
+        <v>-210972.055421132</v>
       </c>
       <c r="D6" t="n">
-        <v>-13034.01283552616</v>
+        <v>183.689160306737</v>
       </c>
       <c r="E6" t="n">
-        <v>-34067.78056773985</v>
+        <v>-20984.18249183502</v>
       </c>
       <c r="F6" t="n">
-        <v>36457.5808416814</v>
+        <v>49541.17891758618</v>
       </c>
       <c r="G6" t="n">
-        <v>36457.58084168139</v>
+        <v>49541.17891758618</v>
       </c>
       <c r="H6" t="n">
-        <v>36457.58084168139</v>
+        <v>49541.17891758618</v>
       </c>
       <c r="I6" t="n">
-        <v>36457.5808416814</v>
+        <v>49541.17891758618</v>
       </c>
       <c r="J6" t="n">
-        <v>36457.58084168139</v>
+        <v>49541.17891758618</v>
       </c>
       <c r="K6" t="n">
-        <v>36457.58084168137</v>
+        <v>49541.1789175862</v>
       </c>
       <c r="L6" t="n">
-        <v>36457.5808416814</v>
+        <v>49541.1789175862</v>
       </c>
       <c r="M6" t="n">
-        <v>36457.5808416814</v>
+        <v>49541.17891758618</v>
       </c>
       <c r="N6" t="n">
-        <v>36457.5808416814</v>
+        <v>49541.1789175862</v>
       </c>
       <c r="O6" t="n">
-        <v>36457.58084168139</v>
+        <v>49541.1789175862</v>
       </c>
       <c r="P6" t="n">
-        <v>36457.58084168139</v>
+        <v>49541.1789175862</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
-        <v>3.75489608644552</v>
+        <v>3.754896086445554</v>
       </c>
       <c r="E3" t="n">
-        <v>87.78329357672456</v>
+        <v>87.78329357672452</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31293,7 +31293,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068053</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M5" t="n">
         <v>165.7299311340341</v>
@@ -31302,7 +31302,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559844</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P5" t="n">
         <v>135.7252782213693</v>
@@ -31317,7 +31317,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342872</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U5" t="n">
         <v>0.07550714794001816</v>
@@ -31387,7 +31387,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.46262480772582</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R6" t="n">
         <v>31.35420961992052</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H7" t="n">
         <v>3.764178316183975</v>
@@ -31454,7 +31454,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797569</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N7" t="n">
         <v>64.78774396352233</v>
@@ -31466,13 +31466,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702512</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R7" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090666</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T7" t="n">
         <v>1.808960949495364</v>
@@ -31515,10 +31515,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9589344088942292</v>
+        <v>0.9589344088942293</v>
       </c>
       <c r="H8" t="n">
-        <v>9.820687015088028</v>
+        <v>9.82068701508803</v>
       </c>
       <c r="I8" t="n">
         <v>36.96931879889481</v>
@@ -31548,16 +31548,16 @@
         <v>103.5541281484768</v>
       </c>
       <c r="R8" t="n">
-        <v>60.23666356270218</v>
+        <v>60.23666356270219</v>
       </c>
       <c r="S8" t="n">
         <v>21.85171784267727</v>
       </c>
       <c r="T8" t="n">
-        <v>4.19773537493449</v>
+        <v>4.197735374934491</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07671475271153833</v>
+        <v>0.07671475271153834</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,16 +31597,16 @@
         <v>0.5130751415135496</v>
       </c>
       <c r="H9" t="n">
-        <v>4.955225708828229</v>
+        <v>4.95522570882823</v>
       </c>
       <c r="I9" t="n">
         <v>17.66508710912879</v>
       </c>
       <c r="J9" t="n">
-        <v>48.47434922519023</v>
+        <v>48.47434922519024</v>
       </c>
       <c r="K9" t="n">
-        <v>82.85038370659805</v>
+        <v>82.85038370659807</v>
       </c>
       <c r="L9" t="n">
         <v>111.4025652659135</v>
@@ -31621,22 +31621,22 @@
         <v>122.0736280775681</v>
       </c>
       <c r="P9" t="n">
-        <v>97.97484873340755</v>
+        <v>97.97484873340757</v>
       </c>
       <c r="Q9" t="n">
-        <v>65.493591748291</v>
+        <v>65.49359174829101</v>
       </c>
       <c r="R9" t="n">
-        <v>31.85566536520092</v>
+        <v>31.85566536520093</v>
       </c>
       <c r="S9" t="n">
-        <v>9.530145720657373</v>
+        <v>9.530145720657375</v>
       </c>
       <c r="T9" t="n">
         <v>2.068052873030491</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03375494352062827</v>
+        <v>0.03375494352062828</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,7 +31673,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4301449633339076</v>
+        <v>0.4301449633339077</v>
       </c>
       <c r="H10" t="n">
         <v>3.8243797649142</v>
@@ -31685,16 +31685,16 @@
         <v>30.41124890770727</v>
       </c>
       <c r="K10" t="n">
-        <v>49.97502392188489</v>
+        <v>49.9750239218849</v>
       </c>
       <c r="L10" t="n">
-        <v>63.95082482147933</v>
+        <v>63.95082482147934</v>
       </c>
       <c r="M10" t="n">
         <v>67.4271782069688</v>
       </c>
       <c r="N10" t="n">
-        <v>65.82391061636065</v>
+        <v>65.82391061636066</v>
       </c>
       <c r="O10" t="n">
         <v>60.79903536286908</v>
@@ -31706,13 +31706,13 @@
         <v>36.0187750660784</v>
       </c>
       <c r="R10" t="n">
-        <v>19.34088171499551</v>
+        <v>19.34088171499552</v>
       </c>
       <c r="S10" t="n">
-        <v>7.496253588282733</v>
+        <v>7.496253588282734</v>
       </c>
       <c r="T10" t="n">
-        <v>1.837892116063059</v>
+        <v>1.83789211606306</v>
       </c>
       <c r="U10" t="n">
         <v>0.0234624525454859</v>
@@ -32469,7 +32469,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I20" t="n">
-        <v>50.5744059370523</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J20" t="n">
         <v>111.3401072796808</v>
@@ -32496,7 +32496,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R20" t="n">
-        <v>82.40437136225566</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S20" t="n">
         <v>29.89337332963048</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.70189203713141</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H21" t="n">
         <v>6.778799411242828</v>
@@ -32575,7 +32575,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R21" t="n">
-        <v>43.57887577908879</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S21" t="n">
         <v>13.03733674233122</v>
@@ -32624,7 +32624,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H22" t="n">
-        <v>5.231790602914802</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I22" t="n">
         <v>17.69607700863206</v>
@@ -32636,10 +32636,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L22" t="n">
-        <v>87.48538192236055</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M22" t="n">
-        <v>92.24106888145178</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N22" t="n">
         <v>90.04778243237713</v>
@@ -33417,7 +33417,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I32" t="n">
-        <v>50.57440593705229</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J32" t="n">
         <v>111.3401072796808</v>
@@ -33444,7 +33444,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R32" t="n">
-        <v>82.40437136225565</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S32" t="n">
         <v>29.89337332963048</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H33" t="n">
         <v>6.778799411242828</v>
@@ -33523,7 +33523,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R33" t="n">
-        <v>43.57887577908878</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S33" t="n">
         <v>13.03733674233122</v>
@@ -33572,7 +33572,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H34" t="n">
-        <v>5.231790602914801</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I34" t="n">
         <v>17.69607700863206</v>
@@ -33584,10 +33584,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L34" t="n">
-        <v>87.48538192236053</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M34" t="n">
-        <v>92.24106888145177</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N34" t="n">
         <v>90.04778243237713</v>
